--- a/RP_near_field_all.xlsx
+++ b/RP_near_field_all.xlsx
@@ -1,32 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5379606_ad_unsw_edu_au/Documents/Documents/Machine Learning/Pressure_history_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{37944A60-3653-440D-AC64-612501731504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E057E9A6-5F8C-4443-8C98-795D9F9DECB0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_23E5812DA4B8DE3D5E1F2BD2F8F2D3C2B4D59DE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0113B133-8F40-4510-968A-B48AB14EE3A2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Standoff distance</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Arrival time</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Change time</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Trough time</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>S/NS</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if_if</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +129,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -358,18 +457,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <cols>
+    <col min="15" max="15" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2.5</v>
+      </c>
+      <c r="B2">
+        <v>1.25</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.63625330000000002</v>
+      </c>
+      <c r="E2">
+        <v>5090.665</v>
+      </c>
+      <c r="F2">
+        <v>1.743269</v>
+      </c>
+      <c r="G2">
+        <v>-0.21702340000000001</v>
+      </c>
+      <c r="H2">
+        <v>3.6529479999999999</v>
+      </c>
+      <c r="I2">
+        <v>-82.526350000000008</v>
+      </c>
+      <c r="J2">
+        <v>4.5215050000000003</v>
+      </c>
+      <c r="K2">
+        <v>60.105550000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>4025</v>
+      </c>
+      <c r="O2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <v>1.25</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0.67336830000000003</v>
+      </c>
+      <c r="E3">
+        <v>4643.5209999999997</v>
+      </c>
+      <c r="F3">
+        <v>1.8142229999999999</v>
+      </c>
+      <c r="G3">
+        <v>-6.770313E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.0234639999999997</v>
+      </c>
+      <c r="I3">
+        <v>-77.667249999999996</v>
+      </c>
+      <c r="J3">
+        <v>4.6055659999999996</v>
+      </c>
+      <c r="K3">
+        <v>73.197050000000004</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>4010</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <v>1.25</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0.81042009999999998</v>
+      </c>
+      <c r="E4">
+        <v>3530.3580000000002</v>
+      </c>
+      <c r="F4">
+        <v>2.1311619999999998</v>
+      </c>
+      <c r="G4">
+        <v>-8.7984380000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.2503419999999998</v>
+      </c>
+      <c r="I4">
+        <v>-59.172780000000003</v>
+      </c>
+      <c r="J4">
+        <v>5.7573530000000002</v>
+      </c>
+      <c r="K4">
+        <v>61.858969999999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>3958</v>
+      </c>
+      <c r="O4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1.1587130000000001</v>
+      </c>
+      <c r="E5">
+        <v>1977.239</v>
+      </c>
+      <c r="F5">
+        <v>2.7226490000000001</v>
+      </c>
+      <c r="G5">
+        <v>-0.18623439999999999</v>
+      </c>
+      <c r="H5">
+        <v>6.4006430000000014</v>
+      </c>
+      <c r="I5">
+        <v>-57.04795</v>
+      </c>
+      <c r="J5">
+        <v>6.5190289999999997</v>
+      </c>
+      <c r="K5">
+        <v>65.488079999999997</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>3809</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8.5</v>
+      </c>
+      <c r="B6">
+        <v>1.25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.46731549999999999</v>
+      </c>
+      <c r="E6">
+        <v>14121.3</v>
+      </c>
+      <c r="F6">
+        <v>1.7623279999999999</v>
+      </c>
+      <c r="G6">
+        <v>-8.2875000000000004E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.0391719999999998</v>
+      </c>
+      <c r="I6">
+        <v>-85.562950000000001</v>
+      </c>
+      <c r="J6">
+        <v>12.543290000000001</v>
+      </c>
+      <c r="K6">
+        <v>16.90175</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>4875</v>
+      </c>
+      <c r="O6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8.5</v>
+      </c>
+      <c r="B7">
+        <v>1.25</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.49170370000000002</v>
+      </c>
+      <c r="E7">
+        <v>13088.89</v>
+      </c>
+      <c r="F7">
+        <v>1.9499580000000001</v>
+      </c>
+      <c r="G7">
+        <v>-0.2194141</v>
+      </c>
+      <c r="H7">
+        <v>3.7121460000000002</v>
+      </c>
+      <c r="I7">
+        <v>-77.430549999999997</v>
+      </c>
+      <c r="J7">
+        <v>10.652010000000001</v>
+      </c>
+      <c r="K7">
+        <v>-24.732669999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>4859</v>
+      </c>
+      <c r="O7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8.5</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.58670499999999992</v>
+      </c>
+      <c r="E8">
+        <v>10640.71</v>
+      </c>
+      <c r="F8">
+        <v>2.194731</v>
+      </c>
+      <c r="G8">
+        <v>-0.20648440000000001</v>
+      </c>
+      <c r="H8">
+        <v>6.1716820000000006</v>
+      </c>
+      <c r="I8">
+        <v>-59.489089999999997</v>
+      </c>
+      <c r="J8">
+        <v>10.484450000000001</v>
+      </c>
+      <c r="K8">
+        <v>-31.957689999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>4800</v>
+      </c>
+      <c r="O8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8.5</v>
+      </c>
+      <c r="B9">
+        <v>1.25</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>0.80230540000000006</v>
+      </c>
+      <c r="E9">
+        <v>7169.2659999999996</v>
+      </c>
+      <c r="F9">
+        <v>4.0074000000000014</v>
+      </c>
+      <c r="G9">
+        <v>-3.5585940000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>6.573861</v>
+      </c>
+      <c r="I9">
+        <v>-50.845300000000002</v>
+      </c>
+      <c r="J9">
+        <v>13.00168</v>
+      </c>
+      <c r="K9">
+        <v>-21.435079999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>4653</v>
+      </c>
+      <c r="O9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>20.5</v>
+      </c>
+      <c r="B10">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.38031870000000001</v>
+      </c>
+      <c r="E10">
+        <v>24925.89</v>
+      </c>
+      <c r="F10">
+        <v>2.1839840000000001</v>
+      </c>
+      <c r="G10">
+        <v>-7.9843750000000002E-3</v>
+      </c>
+      <c r="H10">
+        <v>6.7829280000000001</v>
+      </c>
+      <c r="I10">
+        <v>-72.032719999999998</v>
+      </c>
+      <c r="J10">
+        <v>13.00001</v>
+      </c>
+      <c r="K10">
+        <v>-56.37236</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <v>5619</v>
+      </c>
+      <c r="O10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>20.5</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0.39877380000000001</v>
+      </c>
+      <c r="E11">
+        <v>23112.19</v>
+      </c>
+      <c r="F11">
+        <v>2.2684190000000002</v>
+      </c>
+      <c r="G11">
+        <v>-4.0937500000000002E-3</v>
+      </c>
+      <c r="H11">
+        <v>6.5858560000000006</v>
+      </c>
+      <c r="I11">
+        <v>-69.789369999999991</v>
+      </c>
+      <c r="J11">
+        <v>13.00001</v>
+      </c>
+      <c r="K11">
+        <v>-50.821359999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>5604</v>
+      </c>
+      <c r="O11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20.5</v>
+      </c>
+      <c r="B12">
+        <v>1.25</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.47331269999999998</v>
+      </c>
+      <c r="E12">
+        <v>19866.29</v>
+      </c>
+      <c r="F12">
+        <v>2.3891840000000002</v>
+      </c>
+      <c r="G12">
+        <v>-9.9867189999999995E-2</v>
+      </c>
+      <c r="H12">
+        <v>6.1233839999999997</v>
+      </c>
+      <c r="I12">
+        <v>-66.88078999999999</v>
+      </c>
+      <c r="J12">
+        <v>13.00001</v>
+      </c>
+      <c r="K12">
+        <v>-42.646940000000001</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>5545</v>
+      </c>
+      <c r="O12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20.5</v>
+      </c>
+      <c r="B13">
+        <v>1.25</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>0.63804040000000006</v>
+      </c>
+      <c r="E13">
+        <v>13008.73</v>
+      </c>
+      <c r="F13">
+        <v>2.770705</v>
+      </c>
+      <c r="G13">
+        <v>-0.16501560000000001</v>
+      </c>
+      <c r="H13">
+        <v>5.8061980000000002</v>
+      </c>
+      <c r="I13">
+        <v>-62.949570000000001</v>
+      </c>
+      <c r="J13">
+        <v>12.283189999999999</v>
+      </c>
+      <c r="K13">
+        <v>-28.3249</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>5410</v>
+      </c>
+      <c r="O13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>8.5</v>
+      </c>
+      <c r="B14">
+        <v>2.75</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.9346760000000001</v>
+      </c>
+      <c r="E14">
+        <v>1772.44</v>
+      </c>
+      <c r="F14">
+        <v>3.9078219999999999</v>
+      </c>
+      <c r="G14">
+        <v>-6.0437499999999998E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.1814929999999997</v>
+      </c>
+      <c r="I14">
+        <v>-70.33417</v>
+      </c>
+      <c r="J14">
+        <v>19.420020000000001</v>
+      </c>
+      <c r="K14">
+        <v>-27.002279999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>4943</v>
+      </c>
+      <c r="O14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8.5</v>
+      </c>
+      <c r="B15">
+        <v>2.75</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2.058837</v>
+      </c>
+      <c r="E15">
+        <v>1591.749</v>
+      </c>
+      <c r="F15">
+        <v>4.5837810000000001</v>
+      </c>
+      <c r="G15">
+        <v>-0.14135159999999999</v>
+      </c>
+      <c r="H15">
+        <v>10.3043</v>
+      </c>
+      <c r="I15">
+        <v>-80.796580000000006</v>
+      </c>
+      <c r="J15">
+        <v>18.633590000000002</v>
+      </c>
+      <c r="K15">
+        <v>-23.50328</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>4892</v>
+      </c>
+      <c r="O15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>8.5</v>
+      </c>
+      <c r="B16">
+        <v>2.75</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>2.520769</v>
+      </c>
+      <c r="E16">
+        <v>1147.837</v>
+      </c>
+      <c r="F16">
+        <v>5.2975599999999998</v>
+      </c>
+      <c r="G16">
+        <v>-9.4335939999999993E-2</v>
+      </c>
+      <c r="H16">
+        <v>13.80226</v>
+      </c>
+      <c r="I16">
+        <v>-69.954719999999995</v>
+      </c>
+      <c r="J16">
+        <v>15.10731</v>
+      </c>
+      <c r="K16">
+        <v>-22.951339999999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>4636</v>
+      </c>
+      <c r="O16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8.5</v>
+      </c>
+      <c r="B17">
+        <v>2.75</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>3.6740710000000001</v>
+      </c>
+      <c r="E17">
+        <v>652.20040000000006</v>
+      </c>
+      <c r="F17">
+        <v>6.9677410000000002</v>
+      </c>
+      <c r="G17">
+        <v>-9.0031249999999993E-2</v>
+      </c>
+      <c r="H17">
+        <v>18.365760000000002</v>
+      </c>
+      <c r="I17">
+        <v>-74.029630000000012</v>
+      </c>
+      <c r="J17">
+        <v>22.000900000000001</v>
+      </c>
+      <c r="K17">
+        <v>-32.849580000000003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>4169</v>
+      </c>
+      <c r="O17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20.5</v>
+      </c>
+      <c r="B18">
+        <v>2.75</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.477093</v>
+      </c>
+      <c r="E18">
+        <v>4566.6189999999997</v>
+      </c>
+      <c r="F18">
+        <v>3.5490879999999998</v>
+      </c>
+      <c r="G18">
+        <v>-0.21157029999999999</v>
+      </c>
+      <c r="H18">
+        <v>10.43863</v>
+      </c>
+      <c r="I18">
+        <v>-74.720089999999999</v>
+      </c>
+      <c r="J18">
+        <v>19.071470000000001</v>
+      </c>
+      <c r="K18">
+        <v>-48.408639999999998</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>5585</v>
+      </c>
+      <c r="O18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20.5</v>
+      </c>
+      <c r="B19">
+        <v>2.75</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1.5666519999999999</v>
+      </c>
+      <c r="E19">
+        <v>4062.3690000000001</v>
+      </c>
+      <c r="F19">
+        <v>4.0555019999999997</v>
+      </c>
+      <c r="G19">
+        <v>-5.2085939999999997E-2</v>
+      </c>
+      <c r="H19">
+        <v>9.0105589999999989</v>
+      </c>
+      <c r="I19">
+        <v>-83.112499999999997</v>
+      </c>
+      <c r="J19">
+        <v>17.358319999999999</v>
+      </c>
+      <c r="K19">
+        <v>-51.541069999999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>5553</v>
+      </c>
+      <c r="O19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20.5</v>
+      </c>
+      <c r="B20">
+        <v>2.75</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>1.9058269999999999</v>
+      </c>
+      <c r="E20">
+        <v>2950.2510000000002</v>
+      </c>
+      <c r="F20">
+        <v>4.2936679999999994</v>
+      </c>
+      <c r="G20">
+        <v>-4.1531249999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>15.7784</v>
+      </c>
+      <c r="I20">
+        <v>-74.936669999999992</v>
+      </c>
+      <c r="J20">
+        <v>22.00253</v>
+      </c>
+      <c r="K20">
+        <v>-52.872610000000002</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>5430</v>
+      </c>
+      <c r="O20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20.5</v>
+      </c>
+      <c r="B21">
+        <v>2.75</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>2.7825190000000002</v>
+      </c>
+      <c r="E21">
+        <v>1471.03</v>
+      </c>
+      <c r="F21">
+        <v>5.7364419999999994</v>
+      </c>
+      <c r="G21">
+        <v>-3.8773439999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>17.43282</v>
+      </c>
+      <c r="I21">
+        <v>-78.99342</v>
+      </c>
+      <c r="J21">
+        <v>22.00253</v>
+      </c>
+      <c r="K21">
+        <v>-68.634630000000001</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>5029</v>
+      </c>
+      <c r="O21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>34.5</v>
+      </c>
+      <c r="B22">
+        <v>2.75</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.279666</v>
+      </c>
+      <c r="E22">
+        <v>7594.31</v>
+      </c>
+      <c r="F22">
+        <v>3.3269980000000001</v>
+      </c>
+      <c r="G22">
+        <v>-6.0312500000000002E-3</v>
+      </c>
+      <c r="H22">
+        <v>6.1594110000000004</v>
+      </c>
+      <c r="I22">
+        <v>-83.111969999999999</v>
+      </c>
+      <c r="J22">
+        <v>22.00217</v>
+      </c>
+      <c r="K22">
+        <v>-43.960549999999998</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>6817</v>
+      </c>
+      <c r="O22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>34.5</v>
+      </c>
+      <c r="B23">
+        <v>2.75</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1.3548709999999999</v>
+      </c>
+      <c r="E23">
+        <v>6776.8450000000003</v>
+      </c>
+      <c r="F23">
+        <v>3.7610790000000001</v>
+      </c>
+      <c r="G23">
+        <v>-0.1590703</v>
+      </c>
+      <c r="H23">
+        <v>8.8191159999999993</v>
+      </c>
+      <c r="I23">
+        <v>-83.055800000000005</v>
+      </c>
+      <c r="J23">
+        <v>22.00217</v>
+      </c>
+      <c r="K23">
+        <v>-44.900469999999999</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>6782</v>
+      </c>
+      <c r="O23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>34.5</v>
+      </c>
+      <c r="B24">
+        <v>2.75</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1.633416</v>
+      </c>
+      <c r="E24">
+        <v>5023.3490000000002</v>
+      </c>
+      <c r="F24">
+        <v>4.4720899999999997</v>
+      </c>
+      <c r="G24">
+        <v>-7.0695310000000011E-2</v>
+      </c>
+      <c r="H24">
+        <v>17.308199999999999</v>
+      </c>
+      <c r="I24">
+        <v>-80.129270000000005</v>
+      </c>
+      <c r="J24">
+        <v>22.00217</v>
+      </c>
+      <c r="K24">
+        <v>-44.992089999999997</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>6659</v>
+      </c>
+      <c r="O24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>34.5</v>
+      </c>
+      <c r="B25">
+        <v>2.75</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>2.3591470000000001</v>
+      </c>
+      <c r="E25">
+        <v>2532.877</v>
+      </c>
+      <c r="F25">
+        <v>5.6650019999999994</v>
+      </c>
+      <c r="G25">
+        <v>-5.6984380000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>15.52098</v>
+      </c>
+      <c r="I25">
+        <v>-75.615660000000005</v>
+      </c>
+      <c r="J25">
+        <v>22.00217</v>
+      </c>
+      <c r="K25">
+        <v>-56.511920000000003</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>6264</v>
+      </c>
+      <c r="O25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <f>SUM(O2:O25)</f>
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>